--- a/biology/Zoologie/Echis_ocellatus/Echis_ocellatus.xlsx
+++ b/biology/Zoologie/Echis_ocellatus/Echis_ocellatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Echis ocellatus est une espèce de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echis ocellatus est une espèce de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Mauritanie, au Sénégal, en Gambie, au Mali, en Guinée, en Côte d'Ivoire, au Burkina Faso, au Ghana, au Togo, au Bénin, au Nigeria, au Niger, au Cameroun, au Tchad et en République centrafricaine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Mauritanie, au Sénégal, en Gambie, au Mali, en Guinée, en Côte d'Ivoire, au Burkina Faso, au Ghana, au Togo, au Bénin, au Nigeria, au Niger, au Cameroun, au Tchad et en République centrafricaine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux ovipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux ovipare.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son venin principalement hémotoxique conduit souvent à des complications rénales[2]. C'est le serpent qui provoque le plus de mortalité par morsure de serpent au Sénégal[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son venin principalement hémotoxique conduit souvent à des complications rénales. C'est le serpent qui provoque le plus de mortalité par morsure de serpent au Sénégal.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en raison des ocelles parsemant sa livrée.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Stemmler, 1970 : Die Sandrasselotter aus West-Africa: Echis carinatus ocellatus subsp. nov. (Serpentes, Viperidae). Revue suisse de zoologie, vol. 77, no 2, p. 273-282 (texte intégral).</t>
         </is>
